--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H2">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I2">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J2">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.394935666666667</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N2">
-        <v>4.184807</v>
+        <v>0.272241</v>
       </c>
       <c r="O2">
-        <v>0.6387935784928049</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P2">
-        <v>0.638793578492805</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q2">
-        <v>1.225926191250445</v>
+        <v>0.091507641354</v>
       </c>
       <c r="R2">
-        <v>11.033335721254</v>
+        <v>0.823568772186</v>
       </c>
       <c r="S2">
-        <v>0.1317640495015296</v>
+        <v>0.01194768622424867</v>
       </c>
       <c r="T2">
-        <v>0.1317640495015296</v>
+        <v>0.01194768622424867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8788406666666667</v>
+        <v>1.008382</v>
       </c>
       <c r="H3">
-        <v>2.636522</v>
+        <v>3.025146</v>
       </c>
       <c r="I3">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J3">
-        <v>0.2062701535172269</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,42 +620,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7887676666666668</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N3">
-        <v>2.366303</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q3">
-        <v>0.6932011020184445</v>
+        <v>1.406628017424666</v>
       </c>
       <c r="R3">
-        <v>6.238809918166002</v>
+        <v>12.659652156822</v>
       </c>
       <c r="S3">
-        <v>0.07450610401569727</v>
+        <v>0.1836562492241779</v>
       </c>
       <c r="T3">
-        <v>0.07450610401569728</v>
+        <v>0.1836562492241779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.989906666666666</v>
+        <v>1.008382</v>
       </c>
       <c r="H4">
-        <v>5.96972</v>
+        <v>3.025146</v>
       </c>
       <c r="I4">
-        <v>0.4670452440202887</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="J4">
-        <v>0.4670452440202887</v>
+        <v>0.2654379136902495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.394935666666667</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N4">
-        <v>4.184807</v>
+        <v>1.591243</v>
       </c>
       <c r="O4">
-        <v>0.6387935784928049</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P4">
-        <v>0.638793578492805</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q4">
-        <v>2.775791782671111</v>
+        <v>0.5348602662753332</v>
       </c>
       <c r="R4">
-        <v>24.98212604404</v>
+        <v>4.813742396477999</v>
       </c>
       <c r="S4">
-        <v>0.2983455027457655</v>
+        <v>0.06983397824182298</v>
       </c>
       <c r="T4">
-        <v>0.2983455027457655</v>
+        <v>0.069833978241823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,78 +726,78 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.989906666666666</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H5">
-        <v>5.96972</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I5">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J5">
-        <v>0.4670452440202887</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7887676666666668</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N5">
-        <v>2.366303</v>
+        <v>0.272241</v>
       </c>
       <c r="O5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q5">
-        <v>1.569574038351111</v>
+        <v>0.18057806028</v>
       </c>
       <c r="R5">
-        <v>14.12616634516</v>
+        <v>1.62520254252</v>
       </c>
       <c r="S5">
-        <v>0.1686997412745231</v>
+        <v>0.02357715674107028</v>
       </c>
       <c r="T5">
-        <v>0.1686997412745231</v>
+        <v>0.02357715674107028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1457676666666667</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H6">
-        <v>0.437303</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I6">
-        <v>0.03421270785661711</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J6">
-        <v>0.03421270785661711</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,60 +806,60 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.394935666666667</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N6">
-        <v>4.184807</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O6">
-        <v>0.6387935784928049</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P6">
-        <v>0.638793578492805</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q6">
-        <v>0.2033365172801111</v>
+        <v>2.775791782671111</v>
       </c>
       <c r="R6">
-        <v>1.830028655521</v>
+        <v>24.98212604404</v>
       </c>
       <c r="S6">
-        <v>0.02185485808165735</v>
+        <v>0.362420982034771</v>
       </c>
       <c r="T6">
-        <v>0.02185485808165735</v>
+        <v>0.362420982034771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1457676666666667</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H7">
-        <v>0.437303</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I7">
-        <v>0.03421270785661711</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="J7">
-        <v>0.03421270785661711</v>
+        <v>0.5238061310478755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,122 +868,122 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7887676666666668</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N7">
-        <v>2.366303</v>
+        <v>1.591243</v>
       </c>
       <c r="O7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q7">
-        <v>0.1149768223121111</v>
+        <v>1.055475017995556</v>
       </c>
       <c r="R7">
-        <v>1.034791400809</v>
+        <v>9.49927516196</v>
       </c>
       <c r="S7">
-        <v>0.01235784977495976</v>
+        <v>0.1378079922720343</v>
       </c>
       <c r="T7">
-        <v>0.01235784977495976</v>
+        <v>0.1378079922720343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.9113933333333333</v>
+        <v>0.199448</v>
       </c>
       <c r="H8">
-        <v>2.73418</v>
+        <v>0.598344</v>
       </c>
       <c r="I8">
-        <v>0.2139104958516301</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J8">
-        <v>0.2139104958516301</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.394935666666667</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N8">
-        <v>4.184807</v>
+        <v>0.272241</v>
       </c>
       <c r="O8">
-        <v>0.6387935784928049</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P8">
-        <v>0.638793578492805</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q8">
-        <v>1.271335067028889</v>
+        <v>0.018099307656</v>
       </c>
       <c r="R8">
-        <v>11.44201560326</v>
+        <v>0.162893768904</v>
       </c>
       <c r="S8">
-        <v>0.1366446511222331</v>
+        <v>0.002363134330099059</v>
       </c>
       <c r="T8">
-        <v>0.1366446511222331</v>
+        <v>0.002363134330099059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.9113933333333333</v>
+        <v>0.199448</v>
       </c>
       <c r="H9">
-        <v>2.73418</v>
+        <v>0.598344</v>
       </c>
       <c r="I9">
-        <v>0.2139104958516301</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J9">
-        <v>0.2139104958516301</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,60 +992,60 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7887676666666668</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N9">
-        <v>2.366303</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O9">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P9">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q9">
-        <v>0.718877592948889</v>
+        <v>0.2782171288453332</v>
       </c>
       <c r="R9">
-        <v>6.46989833654</v>
+        <v>2.503954159607999</v>
       </c>
       <c r="S9">
-        <v>0.07726584472939696</v>
+        <v>0.03632539215819384</v>
       </c>
       <c r="T9">
-        <v>0.07726584472939697</v>
+        <v>0.03632539215819385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.068319</v>
+        <v>0.199448</v>
       </c>
       <c r="H10">
-        <v>0.204957</v>
+        <v>0.598344</v>
       </c>
       <c r="I10">
-        <v>0.01603495508644733</v>
+        <v>0.05250099764741227</v>
       </c>
       <c r="J10">
-        <v>0.01603495508644732</v>
+        <v>0.05250099764741228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,42 +1054,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.394935666666667</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N10">
-        <v>4.184807</v>
+        <v>1.591243</v>
       </c>
       <c r="O10">
-        <v>0.6387935784928049</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P10">
-        <v>0.638793578492805</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q10">
-        <v>0.09530060981100001</v>
+        <v>0.1057900779546667</v>
       </c>
       <c r="R10">
-        <v>0.8577054882990001</v>
+        <v>0.952110701592</v>
       </c>
       <c r="S10">
-        <v>0.01024302634064309</v>
+        <v>0.01381247115911937</v>
       </c>
       <c r="T10">
-        <v>0.01024302634064309</v>
+        <v>0.01381247115911937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,78 +1098,78 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.068319</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H11">
-        <v>0.204957</v>
+        <v>1.208449</v>
       </c>
       <c r="I11">
-        <v>0.01603495508644733</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J11">
-        <v>0.01603495508644732</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.7887676666666668</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N11">
-        <v>2.366303</v>
+        <v>0.272241</v>
       </c>
       <c r="O11">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P11">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q11">
-        <v>0.05388781821900001</v>
+        <v>0.036554373801</v>
       </c>
       <c r="R11">
-        <v>0.484990363971</v>
+        <v>0.328989364209</v>
       </c>
       <c r="S11">
-        <v>0.005791928745804232</v>
+        <v>0.004772718232444677</v>
       </c>
       <c r="T11">
-        <v>0.005791928745804232</v>
+        <v>0.004772718232444677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.266402</v>
+        <v>0.4028163333333333</v>
       </c>
       <c r="H12">
-        <v>0.7992060000000001</v>
+        <v>1.208449</v>
       </c>
       <c r="I12">
-        <v>0.06252644366778994</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="J12">
-        <v>0.06252644366778992</v>
+        <v>0.1060339505468722</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,90 +1178,276 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.394935666666667</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N12">
-        <v>4.184807</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O12">
-        <v>0.6387935784928049</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P12">
-        <v>0.638793578492805</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q12">
-        <v>0.3716136514713334</v>
+        <v>0.5619028704825554</v>
       </c>
       <c r="R12">
-        <v>3.344522863242001</v>
+        <v>5.057125834342998</v>
       </c>
       <c r="S12">
-        <v>0.03994149070097631</v>
+        <v>0.07336479320955369</v>
       </c>
       <c r="T12">
-        <v>0.03994149070097631</v>
+        <v>0.07336479320955371</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4028163333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.208449</v>
+      </c>
+      <c r="I13">
+        <v>0.1060339505468722</v>
+      </c>
+      <c r="J13">
+        <v>0.1060339505468722</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.591243</v>
+      </c>
+      <c r="O13">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P13">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q13">
+        <v>0.2136595569007777</v>
+      </c>
+      <c r="R13">
+        <v>1.922936012107</v>
+      </c>
+      <c r="S13">
+        <v>0.02789643910487386</v>
+      </c>
+      <c r="T13">
+        <v>0.02789643910487386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1983843333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.595153</v>
+      </c>
+      <c r="I14">
+        <v>0.05222100706759049</v>
+      </c>
+      <c r="J14">
+        <v>0.05222100706759049</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.266402</v>
-      </c>
-      <c r="H13">
-        <v>0.7992060000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.06252644366778994</v>
-      </c>
-      <c r="J13">
-        <v>0.06252644366778992</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.7887676666666668</v>
-      </c>
-      <c r="N13">
-        <v>2.366303</v>
-      </c>
-      <c r="O13">
-        <v>0.361206421507195</v>
-      </c>
-      <c r="P13">
-        <v>0.361206421507195</v>
-      </c>
-      <c r="Q13">
-        <v>0.2101292839353334</v>
-      </c>
-      <c r="R13">
-        <v>1.891163555418</v>
-      </c>
-      <c r="S13">
-        <v>0.02258495296681361</v>
-      </c>
-      <c r="T13">
-        <v>0.02258495296681361</v>
+      <c r="M14">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.272241</v>
+      </c>
+      <c r="O14">
+        <v>0.04501122713837679</v>
+      </c>
+      <c r="P14">
+        <v>0.04501122713837678</v>
+      </c>
+      <c r="Q14">
+        <v>0.018002783097</v>
+      </c>
+      <c r="R14">
+        <v>0.162025047873</v>
+      </c>
+      <c r="S14">
+        <v>0.002350531610514095</v>
+      </c>
+      <c r="T14">
+        <v>0.002350531610514095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1983843333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.595153</v>
+      </c>
+      <c r="I15">
+        <v>0.05222100706759049</v>
+      </c>
+      <c r="J15">
+        <v>0.05222100706759049</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N15">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="P15">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="Q15">
+        <v>0.2767333822745555</v>
+      </c>
+      <c r="R15">
+        <v>2.490600440471</v>
+      </c>
+      <c r="S15">
+        <v>0.03613166693260991</v>
+      </c>
+      <c r="T15">
+        <v>0.03613166693260991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1983843333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.595153</v>
+      </c>
+      <c r="I16">
+        <v>0.05222100706759049</v>
+      </c>
+      <c r="J16">
+        <v>0.05222100706759049</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.591243</v>
+      </c>
+      <c r="O16">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P16">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q16">
+        <v>0.1052258939087778</v>
+      </c>
+      <c r="R16">
+        <v>0.947033045179</v>
+      </c>
+      <c r="S16">
+        <v>0.01373880852446648</v>
+      </c>
+      <c r="T16">
+        <v>0.01373880852446648</v>
       </c>
     </row>
   </sheetData>
